--- a/exe/manage.xlsx
+++ b/exe/manage.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newgene19_PC\Desktop\amazon_entry_program\exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="17265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="17265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,6 +569,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -604,9 +607,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,10 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,12 +933,12 @@
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -960,7 +961,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -981,7 +982,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1002,7 +1003,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1013,7 +1014,9 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>41996</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" t="s">
         <v>31</v>
@@ -1023,7 +1026,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1039,7 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1052,7 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1058,11 +1061,13 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>42002</v>
+      </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1077,7 +1082,7 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1090,7 +1095,7 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,22 +1137,22 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
@@ -1158,28 +1163,28 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1197,9 +1202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:E11"/>
     </sheetView>
   </sheetViews>
@@ -1214,24 +1220,24 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
@@ -1242,24 +1248,24 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/exe/manage.xlsx
+++ b/exe/manage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="17265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="17265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>課題時間管理</t>
     <phoneticPr fontId="1"/>
@@ -362,6 +362,47 @@
     </rPh>
     <rPh sb="103" eb="104">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ出力テスト</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/3：作業3日目
+実装完了。
+細かくコミットをして、pushする習慣を身に着けた。
+コミットでわかりやすく[add],[fix]などでわかりやすくする。</t>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -889,10 +930,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:J27"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,12 +1053,18 @@
       <c r="D8" s="6">
         <v>10</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="7">
         <v>41996</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>42007</v>
+      </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
@@ -1033,10 +1080,18 @@
       <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7">
+        <v>42007</v>
+      </c>
+      <c r="H9" s="7">
+        <v>42007</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="19"/>
@@ -1046,10 +1101,18 @@
       <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7">
+        <v>42007</v>
+      </c>
+      <c r="H10" s="7">
+        <v>42007</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="20"/>
@@ -1059,22 +1122,28 @@
       <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="7">
-        <v>42002</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>42007</v>
+      </c>
+      <c r="H11" s="7">
+        <v>42007</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1084,7 +1153,7 @@
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="19"/>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -1095,104 +1164,130 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D14" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="7">
-        <v>41670</v>
-      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
+      <c r="B15" s="19"/>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="6">
-        <f>SUM(D5:D14)</f>
-        <v>40</v>
-      </c>
-      <c r="E15" s="6">
-        <f>SUM(E5:E12)</f>
-        <v>2.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="20"/>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
+        <v>41670</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <f>SUM(D5:D16)</f>
+        <v>44</v>
+      </c>
+      <c r="E17" s="6">
+        <f>SUM(E5:E12)</f>
+        <v>11.5</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B19:E21"/>
-    <mergeCell ref="B24:E27"/>
+    <mergeCell ref="B21:E23"/>
+    <mergeCell ref="B26:E29"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1203,10 +1298,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3:E11"/>
+  <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1267,10 +1362,39 @@
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
     </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B4:E6"/>
     <mergeCell ref="B9:E11"/>
+    <mergeCell ref="B14:E16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
